--- a/t/test-data/basic.xlsx
+++ b/t/test-data/basic.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.boeker\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="Songs" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Song</t>
   </si>
@@ -24,9 +29,6 @@
   </si>
   <si>
     <t>Jinjer</t>
-  </si>
-  <si>
-    <t>Home Back</t>
   </si>
   <si>
     <t>Metalness</t>
@@ -74,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,7 +119,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -125,12 +127,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -172,7 +177,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,7 +212,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,11 +423,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
@@ -437,26 +442,23 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
       <c r="C2">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -464,10 +466,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -483,11 +485,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -496,21 +498,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -518,10 +520,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -529,10 +531,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
       </c>
       <c r="C4">
         <v>9</v>
